--- a/T-Score Not Dagilimi.xlsx
+++ b/T-Score Not Dagilimi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kerembal/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A54923A-AC30-3A4B-BAE6-07BC33BC792D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C99F4A6-3FBD-6C41-BBEB-63FABBBF82E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Sınıf Düzeyi</t>
   </si>
@@ -185,7 +185,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,26 +194,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -222,68 +225,27 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -309,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -350,19 +312,6 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -434,132 +383,400 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -928,1136 +1145,921 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
-    <col min="8" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.83203125" style="10"/>
+    <col min="3" max="3" width="16.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="10" customWidth="1"/>
+    <col min="8" max="11" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" customHeight="1">
-      <c r="C1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="43" t="s">
+    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-    </row>
-    <row r="2" spans="1:25" ht="15" customHeight="1">
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="44" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+    </row>
+    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="46" t="s">
+      <c r="P2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="47" t="s">
+      <c r="R2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1">
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>54</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>52</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>49</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>47</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="5">
         <v>44</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="5">
         <v>42</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="5">
         <v>39</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="5">
         <v>37</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>34</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="5">
         <v>32</v>
       </c>
-      <c r="P3" s="25">
+      <c r="P3" s="7">
         <v>29</v>
       </c>
-      <c r="Q3" s="25">
+      <c r="Q3" s="7">
         <v>27</v>
       </c>
-      <c r="R3" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1">
-      <c r="C4" s="6" t="s">
+      <c r="R3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7">
-        <f t="shared" ref="F4:I10" si="0">F3+2</f>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:H10" si="0">F3+2</f>
         <v>56</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <f>I3+2</f>
         <v>49</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <f>J3+2</f>
         <v>46</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <f t="shared" ref="K4:Q4" si="1">K3+2</f>
         <v>44</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="6">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="6">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="6">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="6">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="R4" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1">
-      <c r="C5" s="6" t="s">
+      <c r="R4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <f t="shared" ref="I5:I10" si="2">I4+2</f>
         <v>51</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <f t="shared" ref="J5:J10" si="3">J4+2</f>
         <v>48</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <f t="shared" ref="K5:K10" si="4">K4+2</f>
         <v>46</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <f t="shared" ref="L5:L10" si="5">L4+2</f>
         <v>43</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <f t="shared" ref="M5:M10" si="6">M4+2</f>
         <v>41</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="6">
         <f t="shared" ref="N5:N10" si="7">N4+2</f>
         <v>38</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="6">
         <f t="shared" ref="O5:O10" si="8">O4+2</f>
         <v>36</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="6">
         <f t="shared" ref="P5:P10" si="9">P4+2</f>
         <v>33</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="6">
         <f t="shared" ref="Q5:Q10" si="10">Q4+2</f>
         <v>31</v>
       </c>
-      <c r="R5" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="16">
-      <c r="C6" s="5" t="s">
+      <c r="R5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <f>J5+2</f>
         <v>50</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <f t="shared" si="6"/>
         <v>43</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="6">
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="6">
         <f t="shared" si="9"/>
         <v>35</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="6">
         <f t="shared" si="10"/>
         <v>33</v>
       </c>
-      <c r="R6" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1">
-      <c r="C7" s="5" t="s">
+      <c r="R6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="6">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="6">
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="6">
         <f t="shared" si="10"/>
         <v>35</v>
       </c>
-      <c r="R7" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="16">
-      <c r="C8" s="5" t="s">
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <f>K7+2</f>
         <v>52</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <f t="shared" si="6"/>
         <v>47</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <f t="shared" si="7"/>
         <v>44</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="6">
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="6">
         <f t="shared" si="10"/>
         <v>37</v>
       </c>
-      <c r="R8" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1">
-      <c r="C9" s="5" t="s">
+      <c r="R8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <f t="shared" si="7"/>
         <v>46</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="6">
         <f t="shared" si="8"/>
         <v>44</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="6">
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="6">
         <f t="shared" si="10"/>
         <v>39</v>
       </c>
-      <c r="R9" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="16">
-      <c r="C10" s="5" t="s">
+      <c r="R9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <f t="shared" si="6"/>
         <v>51</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="6">
         <f t="shared" si="8"/>
         <v>46</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="6">
         <f t="shared" si="9"/>
         <v>43</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="6">
         <f t="shared" si="10"/>
         <v>41</v>
       </c>
-      <c r="R10" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="G13" s="14" t="s">
+      <c r="R10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="F13" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="29" t="s">
+      <c r="G13" s="39"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="35"/>
-      <c r="M13" s="28" t="s">
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="20">
+        <f>SUM(I29:I40)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="38" t="e">
+        <f>50 + (10/E15)*(E16-E14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="Y14" s="24"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="35">
+        <f>SUM(J29:J41)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="12"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="Y15" s="24"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="26"/>
+      <c r="D16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="12"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="Y16" s="24"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="26"/>
+      <c r="F17" s="25"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="12"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="Y17" s="24"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C18" s="27"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="12"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="Y18" s="24"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="I19" s="21"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="11"/>
+      <c r="S19" s="14"/>
+      <c r="Y19" s="24"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="I20" s="21"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="11"/>
+      <c r="Y20" s="24"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="12"/>
+      <c r="P21" s="13"/>
+      <c r="Y21" s="24"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="12"/>
+      <c r="P22" s="13"/>
+      <c r="Y22" s="24"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="N13" s="28" t="s">
+      <c r="J28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="10"/>
-      <c r="P13" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-    </row>
-    <row r="14" spans="1:25" ht="16">
-      <c r="D14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="17">
-        <f>P14</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="15" t="e">
-        <f>(E16-E14)/E15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="20" t="e">
-        <f>(F14*10)+50</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="34">
-        <f>I14*J14</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="34">
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="22">
+        <f t="shared" ref="I29:I41" si="11">I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="22">
         <f>SQRT((I14^2)*(K14^2))</f>
         <v>0</v>
       </c>
-      <c r="O14" s="10"/>
-      <c r="P14" s="34">
-        <f>SUM(M14:M31)</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="34">
-        <f>SUM(N14:N26)</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="Y14" s="16" t="str">
-        <f>IF(AND($E$14&lt;=100,$E$14&gt;80),"1","0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="16">
-      <c r="D15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="18">
-        <f>Q14</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="34">
-        <f>I15*J15</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="34">
-        <f>SQRT((I15^2)*(K15)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="49"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="Y15" s="16" t="str">
-        <f>IF(AND(E14&lt;=80,E14&gt;70),"1","0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="16">
-      <c r="A16" s="1"/>
-      <c r="D16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="19">
-        <v>81.75</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="34">
-        <f>I16*J16</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="34">
-        <f t="shared" ref="N16:N26" si="11">SQRT((I16^2)*(K16)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="Y16" s="16" t="str">
-        <f>IF(AND(E14&lt;=70,E14&gt;62.5),"1","0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="1"/>
-      <c r="F17" s="11"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="34">
-        <f t="shared" ref="M16:M26" si="12">I17*J17</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="34">
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="Y17" s="16" t="str">
-        <f>IF(AND(E14&lt;=62.5,E14&gt;57.5),"1","0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="C18" s="8"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="34">
+      <c r="J30" s="22">
+        <f t="shared" ref="J30:J41" si="12">SQRT((I15^2)*(K15)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I31" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N18" s="34">
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I32" s="22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="Y18" s="16" t="str">
-        <f>IF(AND(E14&lt;=57.5,E14&gt;52.5),"1","0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="16">
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="34">
+      <c r="J32" s="22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N19" s="34">
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="9:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I33" s="22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="10"/>
-      <c r="Y19" s="16" t="str">
-        <f>IF(AND(E14&lt;=52.5,E14&gt;47.5),"1","0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="16">
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="34">
+      <c r="J33" s="22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N20" s="34">
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="9:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I34" s="22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="Y20" s="16" t="str">
-        <f>IF(AND(E14&lt;=47.5,E14&gt;42.5),"1","0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="16">
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="34">
+      <c r="J34" s="22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N21" s="34">
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="9:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I35" s="22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O21" s="38"/>
-      <c r="P21" s="42"/>
-      <c r="Y21" s="16" t="str">
-        <f>IF(E14&lt;42.5,"1","0")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="16">
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="34">
+      <c r="J35" s="22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N22" s="34">
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="9:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I36" s="22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O22" s="38"/>
-      <c r="P22" s="42"/>
-      <c r="Y22" s="16"/>
-    </row>
-    <row r="23" spans="1:25" ht="16">
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="34">
+      <c r="J36" s="22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N23" s="34">
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" spans="9:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I37" s="22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-    </row>
-    <row r="24" spans="1:25" ht="16">
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="34">
+      <c r="J37" s="22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N24" s="34">
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" spans="9:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I38" s="22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-    </row>
-    <row r="25" spans="1:25" ht="16">
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="34">
+      <c r="J38" s="22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N25" s="34">
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="9:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I39" s="22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-    </row>
-    <row r="26" spans="1:25" ht="16">
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="34">
+      <c r="J39" s="22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N26" s="34">
+      <c r="L39" s="11"/>
+    </row>
+    <row r="40" spans="9:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I40" s="22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-    </row>
-    <row r="27" spans="1:25" ht="16">
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-    </row>
-    <row r="28" spans="1:25" ht="16">
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-    </row>
-    <row r="29" spans="1:25" ht="16">
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-    </row>
-    <row r="30" spans="1:25" ht="16">
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="31"/>
-    </row>
-    <row r="31" spans="1:25" ht="16">
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="L31" s="32"/>
-    </row>
-    <row r="32" spans="1:25" ht="16">
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="L32" s="32"/>
-    </row>
-    <row r="33" spans="3:12" ht="16">
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="L33" s="32"/>
-    </row>
-    <row r="34" spans="3:12" ht="16">
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="L34" s="32"/>
-    </row>
-    <row r="35" spans="3:12" ht="16">
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="L35" s="32"/>
-    </row>
-    <row r="36" spans="3:12">
-      <c r="L36" s="32"/>
-    </row>
-    <row r="37" spans="3:12">
-      <c r="L37" s="32"/>
-    </row>
-    <row r="38" spans="3:12">
-      <c r="L38" s="32"/>
-    </row>
-    <row r="39" spans="3:12">
-      <c r="L39" s="32"/>
-    </row>
-    <row r="40" spans="3:12">
-      <c r="L40" s="32"/>
-    </row>
-    <row r="41" spans="3:12">
-      <c r="L41" s="32"/>
+      <c r="J40" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="11"/>
+    </row>
+    <row r="41" spans="9:12" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I41" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="H19:H20"/>
     <mergeCell ref="E1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
-      <formula>Y14="1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
-      <formula>$Y$15="1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
-      <formula>$Y$16="1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="4" priority="12" stopIfTrue="1">
-      <formula>$Y$17="1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="3" priority="13" stopIfTrue="1">
-      <formula>$Y$18="1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="2" priority="14" stopIfTrue="1">
-      <formula>$Y$19="1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
-      <formula>$Y$20="1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
-      <formula>$Y$21="1"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
